--- a/primermes/plantillastakeholderGIBMAFE.xlsx
+++ b/primermes/plantillastakeholderGIBMAFE.xlsx
@@ -406,39 +406,39 @@
 La aplicación se debe ejecutar en cualquiera de los siguientes navegadores Google Chrome,Mozilla </t>
   </si>
   <si>
-    <t xml:space="preserve">Muestra información general sobre los movimientos de forma organizada además tendrá CRUD, generar reporte y buscador por código y organizados por fecha de ingreso.
+    <t>Responsable de registrar  los movimientos en el sistema tanto como sus novedades y manejo de reportes semanales</t>
+  </si>
+  <si>
+    <t>Responsable de registrar los nuevos productos tambien proveedores y clientes, encargado de modificar o eliminar datos del sistema y generacion de reportes de los mismos.</t>
+  </si>
+  <si>
+    <t>Muestra información general sobre los productos tambien proveedores y  clientes estos ultimos considerados como externos en el proceso logistico, tanto los externos como los productos  tendrán CRUD, generar reporte y buscador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF003                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF004            </t>
+  </si>
+  <si>
+    <t>RF005</t>
+  </si>
+  <si>
+    <t>RF006                  RF007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RF008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra a los usuarios información acerca de los productos disponibles en el almacén tal como código, descripción cantidad,estado precio de compra, generar reporte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra información general sobre los movimientos de forma organizada además tendrá CRUD, generar reporte, buscador  y organizados por fecha de ingreso.
 </t>
   </si>
   <si>
-    <t>Responsable de registrar  los movimientos en el sistema tanto como sus novedades y manejo de reportes semanales</t>
-  </si>
-  <si>
-    <t>Responsable de registrar los nuevos productos tambien proveedores y clientes, encargado de modificar o eliminar datos del sistema y generacion de reportes de los mismos.</t>
-  </si>
-  <si>
-    <t>Muestra información general sobre los productos tambien proveedores y  clientes estos ultimos considerados como externos en el proceso logistico, tanto los externos como los productos  tendrán CRUD, generar reporte y buscador</t>
-  </si>
-  <si>
-    <t>Permite al administrador imprimir reportes de todo tipo ya sea de productos, externos , ventas, abastecimiento, averias, solicitud de garantias, salida de garantias, llegada de garantia, entrega de garantias, stock disponible.  
+    <t>Permite al administrador imprimir reportes de todo tipo ya sea de productos, externos , ventas, abastecimiento, averias, solicitud de garantias, salida de garantias, llegada de garantia, entrega de garantias.  
 Permite al usuario la administración de usuario modificando sus datos y cambiando su contraseña.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF003                                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF004            </t>
-  </si>
-  <si>
-    <t>RF005</t>
-  </si>
-  <si>
-    <t>RF006                  RF007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  RF008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muestra a los usuarios información acerca de los productos disponibles en el almacén tal como código, descripción cantidad,estado precio de compra, generar reporte. </t>
   </si>
 </sst>
 </file>
@@ -1041,11 +1041,83 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1053,67 +1125,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1149,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,27 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,51 +1487,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
@@ -1569,10 +1569,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="151.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="54" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -1592,17 +1592,17 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="79" t="s">
-        <v>117</v>
+      <c r="A6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>116</v>
+      <c r="E6" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1611,17 +1611,17 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="79" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>119</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1630,17 +1630,17 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="77" t="s">
-        <v>123</v>
+      <c r="E8" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1649,17 +1649,17 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="77" t="s">
-        <v>124</v>
+      <c r="E9" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1674,8 +1674,8 @@
         <v>97</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="77" t="s">
-        <v>125</v>
+      <c r="E10" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>109</v>
@@ -1687,16 +1687,16 @@
       <c r="K10" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -1705,14 +1705,14 @@
       <c r="B13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
@@ -1721,14 +1721,14 @@
       <c r="B14" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -1737,14 +1737,14 @@
       <c r="B15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -1753,14 +1753,14 @@
       <c r="B16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
@@ -1769,14 +1769,14 @@
       <c r="B17" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
@@ -1789,16 +1789,16 @@
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -1807,14 +1807,14 @@
       <c r="B20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
@@ -1823,14 +1823,14 @@
       <c r="B21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
@@ -1839,14 +1839,14 @@
       <c r="B22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
@@ -1855,14 +1855,14 @@
       <c r="B23" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -1871,14 +1871,14 @@
       <c r="B24" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -1887,14 +1887,14 @@
       <c r="B25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
@@ -1903,29 +1903,29 @@
       <c r="B26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
@@ -1934,14 +1934,14 @@
       <c r="B29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
@@ -1950,14 +1950,14 @@
       <c r="B30" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -1966,14 +1966,14 @@
       <c r="B31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
@@ -1982,17 +1982,33 @@
       <c r="B32" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:C3"/>
@@ -2002,22 +2018,6 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2049,51 +2049,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -2286,16 +2286,16 @@
       <c r="K9" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -2304,14 +2304,14 @@
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -2320,14 +2320,14 @@
       <c r="B13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -2336,14 +2336,14 @@
       <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -2352,14 +2352,14 @@
       <c r="B15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -2368,26 +2368,26 @@
       <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
@@ -2396,14 +2396,14 @@
       <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -2412,14 +2412,14 @@
       <c r="B20" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
@@ -2428,14 +2428,14 @@
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -2444,14 +2444,14 @@
       <c r="B22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
@@ -2460,14 +2460,14 @@
       <c r="B23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2476,14 +2476,14 @@
       <c r="B24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -2492,29 +2492,29 @@
       <c r="B25" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
@@ -2523,14 +2523,14 @@
       <c r="B28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -2539,14 +2539,14 @@
       <c r="B29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -2555,14 +2555,14 @@
       <c r="B30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
     </row>
     <row r="31" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -2571,14 +2571,14 @@
       <c r="B31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
@@ -2587,17 +2587,31 @@
       <c r="B32" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
@@ -2608,20 +2622,6 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
